--- a/需求优先级打分/SRA2023-G17-学生用户优先级排序.xlsx
+++ b/需求优先级打分/SRA2023-G17-学生用户优先级排序.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5afd51ae6bd675b9/桌面/需求优先级打分/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lenovo\文档\GitHub\Request\需求优先级打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{CC985CE6-2F82-4545-B0D1-6CF5335E1670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E979EDD0-D911-447C-A964-F3B6CE0A0CB8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE08ABF-9E53-4BE8-A7BB-0323D737D60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>特性</t>
   </si>
@@ -129,34 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    平时成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    作业成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    大作业成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    期中成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    期末成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    成绩构成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    期末总评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看个人信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,6 +231,14 @@
   </si>
   <si>
     <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论坛版块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帖子标签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,14 +263,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -309,16 +290,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -622,287 +600,287 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1">
-        <v>1.3027252747252747</v>
+        <v>1.381196578</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>1.2815733165916066</v>
+        <v>1.3027252747252747</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1.279294964028777</v>
+        <v>1.2815733165916066</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>1.1726870503597122</v>
+        <v>1.279294964028777</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1">
-        <v>1.1726870503597122</v>
+        <v>1.278885721</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>1.1193830935251798</v>
+        <v>1.1726870503597122</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>1.1193830935251798</v>
+        <v>1.1726870503597122</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>1.0874007194244606</v>
+        <v>1.1193830935251798</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>1.0557709923664123</v>
+        <v>1.1193830935251798</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.96492558139534901</v>
+        <v>1.0874007194244606</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
-        <v>0.85464837209302325</v>
+        <v>1.0557709923664123</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>0.85464837209302325</v>
+        <v>0.96492558139534901</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
-        <v>0.71235462724935739</v>
+        <v>0.85464837209302325</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>0.71235123510061871</v>
+        <v>0.85464837209302325</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
-        <v>0.70854524421593823</v>
+        <v>0.71235462724935739</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
-        <v>0.70854524421593823</v>
+        <v>0.71235123510061871</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1">
-        <v>0.6940171993578742</v>
+        <v>0.70854524421593823</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
+      <c r="A19" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B19" s="1">
-        <v>0.6940171993578742</v>
+        <v>0.70854524421593823</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>28</v>
+      <c r="A20" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B20" s="1">
-        <v>0.6940171993578742</v>
+        <v>0.65042309762436568</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>29</v>
+      <c r="A21" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B21" s="1">
-        <v>0.6940171993578742</v>
+        <v>0.65042309762436568</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>30</v>
+      <c r="A22" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B22" s="1">
-        <v>0.6940171993578742</v>
+        <v>0.65007837338262475</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>31</v>
+      <c r="A23" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B23" s="1">
-        <v>0.6940171993578742</v>
+        <v>0.65007837338262475</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>32</v>
+      <c r="A24" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B24" s="1">
-        <v>0.6940171993578742</v>
+        <v>0.63885610278372595</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1">
-        <v>0.65042309762436568</v>
+        <v>0.60169285541476303</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1">
-        <v>0.65042309762436568</v>
+        <v>0.60169285541476303</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1">
-        <v>0.65007837338262475</v>
+        <v>0.59349888724382238</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>0.65007837338262475</v>
+        <v>0.58538078786192904</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1">
-        <v>0.63885610278372595</v>
+        <v>0.58010860299921063</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1">
-        <v>0.60169285541476303</v>
+        <v>0.57855961722488047</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B31" s="1">
-        <v>0.60169285541476303</v>
+        <v>0.56663055295220244</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1">
-        <v>0.59349888724382238</v>
+        <v>0.55181861924686193</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1">
-        <v>0.58538078786192904</v>
+        <v>0.55181861924686193</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B34" s="1">
-        <v>0.58010860299921063</v>
+        <v>0.55181861924686193</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1">
-        <v>0.57855961722488047</v>
+        <v>0.55181861924686193</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B36" s="1">
-        <v>0.56663055295220244</v>
+        <v>0.55181861924686193</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1">
         <v>0.55181861924686193</v>
@@ -910,74 +888,74 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1">
-        <v>0.55181861924686193</v>
+        <v>0.52514447978191725</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1">
-        <v>0.55181861924686193</v>
+        <v>0.52514447978191725</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B40" s="1">
-        <v>0.55181861924686193</v>
+        <v>0.52181744312622114</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B41" s="1">
-        <v>0.55181861924686193</v>
+        <v>0.52181744312622114</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>0.55181861924686193</v>
+        <v>0.52154087988136422</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>0.52514447978191725</v>
+        <v>0.52154087988136422</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>0.52514447978191725</v>
+        <v>0.52154087988136422</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>0.52181744312622114</v>
+        <v>0.52154087988136422</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B46" s="1">
-        <v>0.52181744312622114</v>
+        <v>0.51746896443350265</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -985,7 +963,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="1">
-        <v>0.52154087988136422</v>
+        <v>0.50090704225352101</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -993,7 +971,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="1">
-        <v>0.52154087988136422</v>
+        <v>0.50090704225352101</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1001,68 +979,28 @@
         <v>49</v>
       </c>
       <c r="B49" s="1">
-        <v>0.52154087988136422</v>
+        <v>0.50090704225352101</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B50" s="1">
-        <v>0.52154087988136422</v>
+        <v>0.49224083044982697</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B51" s="1">
-        <v>0.51746896443350265</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="1">
-        <v>0.50090704225352101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="1">
-        <v>0.50090704225352101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="1">
-        <v>0.50090704225352101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" s="1">
-        <v>0.49224083044982697</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" s="1">
         <v>0.43481273356401384</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B56">
-    <sortCondition descending="1" ref="B2:B56"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B51">
+    <sortCondition descending="1" ref="B2:B51"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求优先级打分/SRA2023-G17-学生用户优先级排序.xlsx
+++ b/需求优先级打分/SRA2023-G17-学生用户优先级排序.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lenovo\文档\GitHub\Request\需求优先级打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE08ABF-9E53-4BE8-A7BB-0323D737D60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A17912-0DB6-48F8-9E79-2FD2E9ACCA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>特性</t>
   </si>
@@ -239,6 +239,10 @@
   </si>
   <si>
     <t>帖子标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建群聊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -784,15 +788,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1">
-        <v>0.60169285541476303</v>
+        <v>0.63745384599999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1">
         <v>0.60169285541476303</v>
@@ -800,55 +804,55 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1">
-        <v>0.59349888724382238</v>
+        <v>0.60169285541476303</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1">
-        <v>0.58538078786192904</v>
+        <v>0.59349888724382238</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1">
-        <v>0.58010860299921063</v>
+        <v>0.58538078786192904</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1">
-        <v>0.57855961722488047</v>
+        <v>0.58010860299921063</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1">
-        <v>0.56663055295220244</v>
+        <v>0.57855961722488047</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B32" s="1">
-        <v>0.55181861924686193</v>
+        <v>0.56663055295220244</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="1">
         <v>0.55181861924686193</v>
@@ -856,7 +860,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1">
         <v>0.55181861924686193</v>
@@ -864,7 +868,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1">
         <v>0.55181861924686193</v>
@@ -872,7 +876,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1">
         <v>0.55181861924686193</v>
@@ -880,7 +884,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1">
         <v>0.55181861924686193</v>
@@ -888,15 +892,15 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1">
-        <v>0.52514447978191725</v>
+        <v>0.55181861924686193</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1">
         <v>0.52514447978191725</v>
@@ -904,15 +908,15 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B40" s="1">
-        <v>0.52181744312622114</v>
+        <v>0.52514447978191725</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" s="1">
         <v>0.52181744312622114</v>
@@ -920,15 +924,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B42" s="1">
-        <v>0.52154087988136422</v>
+        <v>0.52181744312622114</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1">
         <v>0.52154087988136422</v>
@@ -936,7 +940,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="1">
         <v>0.52154087988136422</v>
@@ -944,7 +948,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1">
         <v>0.52154087988136422</v>
@@ -952,23 +956,23 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1">
-        <v>0.51746896443350265</v>
+        <v>0.52154087988136422</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B47" s="1">
-        <v>0.50090704225352101</v>
+        <v>0.51746896443350265</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>0.50090704225352101</v>
@@ -976,7 +980,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>0.50090704225352101</v>
@@ -984,23 +988,31 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>0.49224083044982697</v>
+        <v>0.50090704225352101</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.49224083044982697</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B52" s="1">
         <v>0.43481273356401384</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B51">
-    <sortCondition descending="1" ref="B2:B51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B52">
+    <sortCondition descending="1" ref="B2:B52"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
